--- a/VersionRecords/Version 5.3.1.2 20170227/版本Bug和特性计划及评审表v5.3.1.2.xlsx
+++ b/VersionRecords/Version 5.3.1.2 20170227/版本Bug和特性计划及评审表v5.3.1.2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11.2 新特性|Fix Bug'!$A$1:$W$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11.2 新特性|Fix Bug'!$A$1:$W$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>No</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>TP-511</t>
+  </si>
+  <si>
+    <t>tp前端包</t>
+  </si>
+  <si>
+    <t>renter</t>
+  </si>
+  <si>
+    <t>renterpc</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>tasktracker</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -271,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -363,8 +381,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF141414"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -376,7 +407,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,8 +484,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,44 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,60 +538,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -520,16 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,37 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,25 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,13 +695,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,55 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +940,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -924,11 +979,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,26 +1011,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,24 +1029,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,177 +1042,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1374,15 +1405,15 @@
     <xf numFmtId="14" fontId="12" fillId="6" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1410,7 +1441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,8 +1453,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="59" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1438,6 +1472,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1853,10 +1890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X164"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2004,142 +2041,316 @@
       <c r="R2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="S2" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="77">
+        <v>9187</v>
+      </c>
       <c r="U2" s="68"/>
       <c r="V2" s="75"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="78"/>
-    </row>
-    <row r="3" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
+    </row>
+    <row r="3" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="63">
+        <v>42793</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="63">
+        <v>42793</v>
+      </c>
       <c r="K3" s="62"/>
       <c r="L3" s="71"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="M3" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="P3" s="71"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
+      <c r="Q3" s="63">
+        <v>42790</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="80">
+        <v>9187</v>
+      </c>
+      <c r="U3" s="68"/>
       <c r="V3" s="75"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="78"/>
-    </row>
-    <row r="4" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+    </row>
+    <row r="4" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A4" s="60">
+        <v>2</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="63">
+        <v>42793</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="63">
+        <v>42793</v>
+      </c>
       <c r="K4" s="62"/>
       <c r="L4" s="71"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="M4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="P4" s="71"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="68"/>
+      <c r="Q4" s="63">
+        <v>42790</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="80">
+        <v>9187</v>
+      </c>
       <c r="U4" s="68"/>
       <c r="V4" s="75"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="78"/>
-    </row>
-    <row r="5" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A5" s="60">
+        <v>2</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="63">
+        <v>42793</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="63">
+        <v>42793</v>
+      </c>
       <c r="K5" s="62"/>
       <c r="L5" s="71"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
+      <c r="M5" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="P5" s="71"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="68"/>
+      <c r="Q5" s="63">
+        <v>42790</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="80">
+        <v>9187</v>
+      </c>
       <c r="U5" s="68"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="78"/>
-    </row>
-    <row r="6" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+    </row>
+    <row r="6" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A6" s="60">
+        <v>2</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="63">
+        <v>42793</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="63">
+        <v>42793</v>
+      </c>
       <c r="K6" s="62"/>
       <c r="L6" s="71"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
+      <c r="M6" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="P6" s="71"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="68"/>
+      <c r="Q6" s="63">
+        <v>42790</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="80">
+        <v>9187</v>
+      </c>
       <c r="U6" s="68"/>
       <c r="V6" s="75"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="78"/>
-    </row>
-    <row r="7" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="79"/>
+    </row>
+    <row r="7" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A7" s="60">
+        <v>2</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="63">
+        <v>42793</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="63">
+        <v>42793</v>
+      </c>
       <c r="K7" s="62"/>
       <c r="L7" s="71"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
+      <c r="M7" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="P7" s="71"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="68"/>
+      <c r="Q7" s="63">
+        <v>42790</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="80">
+        <v>9187</v>
+      </c>
       <c r="U7" s="68"/>
       <c r="V7" s="75"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
     </row>
     <row r="8" s="55" customFormat="1" ht="16.5" spans="1:24">
       <c r="A8" s="60"/>
@@ -2160,12 +2371,12 @@
       <c r="P8" s="71"/>
       <c r="Q8" s="63"/>
       <c r="R8" s="71"/>
-      <c r="S8" s="68"/>
+      <c r="S8" s="77"/>
       <c r="T8" s="68"/>
       <c r="U8" s="68"/>
       <c r="V8" s="75"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="78"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="79"/>
     </row>
     <row r="9" s="55" customFormat="1" ht="16.5" spans="1:24">
       <c r="A9" s="60"/>
@@ -2176,7 +2387,7 @@
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="63"/>
       <c r="K9" s="62"/>
       <c r="L9" s="71"/>
@@ -2189,9 +2400,9 @@
       <c r="S9" s="68"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="78"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="79"/>
     </row>
     <row r="10" s="55" customFormat="1" ht="16.5" spans="1:24">
       <c r="A10" s="60"/>
@@ -2216,8 +2427,8 @@
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
       <c r="V10" s="68"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="78"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="79"/>
     </row>
     <row r="11" s="55" customFormat="1" ht="16.5" spans="1:24">
       <c r="A11" s="60"/>
@@ -2230,22 +2441,22 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="71"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
-      <c r="P11" s="73"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="63"/>
-      <c r="R11" s="73"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="68"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
       <c r="V11" s="68"/>
       <c r="W11" s="81"/>
-      <c r="X11" s="78"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:23">
+      <c r="X11" s="79"/>
+    </row>
+    <row r="12" s="55" customFormat="1" ht="16.5" spans="1:24">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -2256,19 +2467,20 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
-      <c r="K12" s="74"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="71"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="71"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="63"/>
-      <c r="R12" s="71"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
       <c r="V12" s="68"/>
-      <c r="W12" s="69"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="79"/>
     </row>
     <row r="13" ht="16.5" spans="1:23">
       <c r="A13" s="60"/>
@@ -2286,7 +2498,7 @@
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
-      <c r="P13" s="68"/>
+      <c r="P13" s="71"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="71"/>
       <c r="S13" s="68"/>
@@ -2311,7 +2523,7 @@
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="75"/>
+      <c r="P14" s="68"/>
       <c r="Q14" s="63"/>
       <c r="R14" s="71"/>
       <c r="S14" s="68"/>
@@ -2324,34 +2536,34 @@
       <c r="A15" s="60"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
-      <c r="D15" s="65"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="62"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="62"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="71"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="75"/>
       <c r="Q15" s="63"/>
       <c r="R15" s="71"/>
       <c r="S15" s="68"/>
       <c r="T15" s="68"/>
       <c r="U15" s="68"/>
       <c r="V15" s="68"/>
-      <c r="W15" s="80"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" ht="16.5" spans="1:23">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="65"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="62"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="62"/>
@@ -2368,15 +2580,15 @@
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
       <c r="V16" s="68"/>
-      <c r="W16" s="80"/>
+      <c r="W16" s="81"/>
     </row>
     <row r="17" ht="16.5" spans="1:23">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="66"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63"/>
       <c r="I17" s="62"/>
@@ -2393,15 +2605,15 @@
       <c r="T17" s="68"/>
       <c r="U17" s="68"/>
       <c r="V17" s="68"/>
-      <c r="W17" s="80"/>
+      <c r="W17" s="81"/>
     </row>
     <row r="18" ht="16.5" spans="1:23">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
-      <c r="D18" s="65"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="62"/>
-      <c r="F18" s="66"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
       <c r="I18" s="62"/>
@@ -2414,19 +2626,19 @@
       <c r="P18" s="71"/>
       <c r="Q18" s="63"/>
       <c r="R18" s="71"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="83"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="81"/>
     </row>
     <row r="19" ht="16.5" spans="1:23">
       <c r="A19" s="60"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
-      <c r="D19" s="65"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="66"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="62"/>
       <c r="H19" s="63"/>
       <c r="I19" s="62"/>
@@ -2439,44 +2651,44 @@
       <c r="P19" s="71"/>
       <c r="Q19" s="63"/>
       <c r="R19" s="71"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="84"/>
     </row>
     <row r="20" ht="16.5" spans="1:23">
       <c r="A20" s="60"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="62"/>
-      <c r="F20" s="66"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
       <c r="I20" s="62"/>
       <c r="J20" s="63"/>
       <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="L20" s="71"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="O20" s="71"/>
       <c r="P20" s="71"/>
       <c r="Q20" s="63"/>
       <c r="R20" s="71"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
       <c r="V20" s="85"/>
-      <c r="W20" s="83"/>
+      <c r="W20" s="84"/>
     </row>
     <row r="21" ht="16.5" spans="1:23">
       <c r="A21" s="60"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
-      <c r="D21" s="65"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="62"/>
-      <c r="F21" s="66"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="62"/>
       <c r="H21" s="63"/>
       <c r="I21" s="62"/>
@@ -2489,44 +2701,44 @@
       <c r="P21" s="71"/>
       <c r="Q21" s="63"/>
       <c r="R21" s="71"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="83"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="84"/>
     </row>
     <row r="22" ht="16.5" spans="1:23">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="62"/>
-      <c r="F22" s="66"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="62"/>
       <c r="H22" s="63"/>
       <c r="I22" s="62"/>
       <c r="J22" s="63"/>
       <c r="K22" s="62"/>
-      <c r="L22" s="71"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
       <c r="O22" s="71"/>
       <c r="P22" s="71"/>
       <c r="Q22" s="63"/>
       <c r="R22" s="71"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="83"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="84"/>
     </row>
     <row r="23" ht="16.5" spans="1:23">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
-      <c r="D23" s="65"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="66"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="62"/>
       <c r="H23" s="63"/>
       <c r="I23" s="62"/>
@@ -2539,19 +2751,19 @@
       <c r="P23" s="71"/>
       <c r="Q23" s="63"/>
       <c r="R23" s="71"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="71"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="84"/>
     </row>
     <row r="24" ht="16.5" spans="1:23">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="62"/>
-      <c r="F24" s="66"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="62"/>
@@ -2564,19 +2776,19 @@
       <c r="P24" s="71"/>
       <c r="Q24" s="63"/>
       <c r="R24" s="71"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="80"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="71"/>
     </row>
     <row r="25" ht="16.5" spans="1:23">
       <c r="A25" s="60"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
-      <c r="D25" s="65"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="62"/>
       <c r="H25" s="63"/>
       <c r="I25" s="62"/>
@@ -2593,15 +2805,15 @@
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
-      <c r="W25" s="80"/>
+      <c r="W25" s="81"/>
     </row>
     <row r="26" ht="16.5" spans="1:23">
       <c r="A26" s="60"/>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="66"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="62"/>
       <c r="H26" s="63"/>
       <c r="I26" s="62"/>
@@ -2618,20 +2830,20 @@
       <c r="T26" s="68"/>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
-      <c r="W26" s="80"/>
+      <c r="W26" s="81"/>
     </row>
     <row r="27" ht="16.5" spans="1:23">
       <c r="A27" s="60"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
-      <c r="D27" s="65"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="62"/>
-      <c r="F27" s="66"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
       <c r="I27" s="62"/>
       <c r="J27" s="63"/>
-      <c r="K27" s="66"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="71"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -2639,36 +2851,36 @@
       <c r="P27" s="71"/>
       <c r="Q27" s="63"/>
       <c r="R27" s="71"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="83"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="81"/>
     </row>
     <row r="28" ht="16.5" spans="1:23">
       <c r="A28" s="60"/>
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="62"/>
       <c r="H28" s="63"/>
       <c r="I28" s="62"/>
       <c r="J28" s="63"/>
-      <c r="K28" s="62"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="71"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="71"/>
       <c r="Q28" s="63"/>
       <c r="R28" s="71"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="77"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="84"/>
     </row>
     <row r="29" ht="16.5" spans="1:23">
       <c r="A29" s="60"/>
@@ -2693,7 +2905,7 @@
       <c r="T29" s="68"/>
       <c r="U29" s="68"/>
       <c r="V29" s="68"/>
-      <c r="W29" s="80"/>
+      <c r="W29" s="78"/>
     </row>
     <row r="30" ht="16.5" spans="1:23">
       <c r="A30" s="60"/>
@@ -2718,7 +2930,7 @@
       <c r="T30" s="68"/>
       <c r="U30" s="68"/>
       <c r="V30" s="68"/>
-      <c r="W30" s="80"/>
+      <c r="W30" s="81"/>
     </row>
     <row r="31" ht="16.5" spans="1:23">
       <c r="A31" s="60"/>
@@ -2743,7 +2955,7 @@
       <c r="T31" s="68"/>
       <c r="U31" s="68"/>
       <c r="V31" s="68"/>
-      <c r="W31" s="80"/>
+      <c r="W31" s="81"/>
     </row>
     <row r="32" ht="16.5" spans="1:23">
       <c r="A32" s="60"/>
@@ -2768,7 +2980,7 @@
       <c r="T32" s="68"/>
       <c r="U32" s="68"/>
       <c r="V32" s="68"/>
-      <c r="W32" s="80"/>
+      <c r="W32" s="81"/>
     </row>
     <row r="33" ht="16.5" spans="1:23">
       <c r="A33" s="60"/>
@@ -2793,7 +3005,7 @@
       <c r="T33" s="68"/>
       <c r="U33" s="68"/>
       <c r="V33" s="68"/>
-      <c r="W33" s="80"/>
+      <c r="W33" s="81"/>
     </row>
     <row r="34" ht="16.5" spans="1:23">
       <c r="A34" s="60"/>
@@ -2818,7 +3030,7 @@
       <c r="T34" s="68"/>
       <c r="U34" s="68"/>
       <c r="V34" s="68"/>
-      <c r="W34" s="80"/>
+      <c r="W34" s="81"/>
     </row>
     <row r="35" ht="16.5" spans="1:23">
       <c r="A35" s="60"/>
@@ -2843,7 +3055,7 @@
       <c r="T35" s="68"/>
       <c r="U35" s="68"/>
       <c r="V35" s="68"/>
-      <c r="W35" s="80"/>
+      <c r="W35" s="81"/>
     </row>
     <row r="36" ht="16.5" spans="1:23">
       <c r="A36" s="60"/>
@@ -2868,7 +3080,7 @@
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
       <c r="V36" s="68"/>
-      <c r="W36" s="80"/>
+      <c r="W36" s="81"/>
     </row>
     <row r="37" ht="16.5" spans="1:23">
       <c r="A37" s="60"/>
@@ -2893,7 +3105,7 @@
       <c r="T37" s="68"/>
       <c r="U37" s="68"/>
       <c r="V37" s="68"/>
-      <c r="W37" s="80"/>
+      <c r="W37" s="81"/>
     </row>
     <row r="38" ht="16.5" spans="1:23">
       <c r="A38" s="60"/>
@@ -2918,38 +3130,38 @@
       <c r="T38" s="68"/>
       <c r="U38" s="68"/>
       <c r="V38" s="68"/>
-      <c r="W38" s="80"/>
+      <c r="W38" s="81"/>
     </row>
     <row r="39" ht="16.5" spans="1:23">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
-      <c r="D39" s="64"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="63"/>
       <c r="K39" s="62"/>
       <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="62"/>
       <c r="O39" s="62"/>
       <c r="P39" s="71"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="71"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="80"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="81"/>
     </row>
     <row r="40" ht="16.5" spans="1:23">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
-      <c r="D40" s="64"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
       <c r="G40" s="62"/>
@@ -2964,24 +3176,24 @@
       <c r="P40" s="71"/>
       <c r="Q40" s="63"/>
       <c r="R40" s="71"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="80"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="81"/>
     </row>
     <row r="41" ht="16.5" spans="1:23">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
-      <c r="D41" s="67"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="63"/>
-      <c r="K41" s="74"/>
+      <c r="K41" s="62"/>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
       <c r="N41" s="62"/>
@@ -2989,11 +3201,11 @@
       <c r="P41" s="71"/>
       <c r="Q41" s="63"/>
       <c r="R41" s="71"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="69"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="81"/>
     </row>
     <row r="42" ht="16.5" spans="1:23">
       <c r="A42" s="60"/>
@@ -3146,24 +3358,24 @@
       <c r="W47" s="69"/>
     </row>
     <row r="48" ht="16.5" spans="1:23">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="68"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="62"/>
       <c r="G48" s="62"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="70"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
       <c r="K48" s="74"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="62"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="69"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="71"/>
       <c r="S48" s="68"/>
       <c r="T48" s="68"/>
       <c r="U48" s="68"/>
@@ -3552,7 +3764,7 @@
       <c r="D64" s="69"/>
       <c r="E64" s="68"/>
       <c r="F64" s="62"/>
-      <c r="G64" s="68"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="70"/>
       <c r="I64" s="68"/>
       <c r="J64" s="70"/>
@@ -3701,7 +3913,7 @@
       <c r="C70" s="68"/>
       <c r="D70" s="69"/>
       <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="68"/>
       <c r="H70" s="70"/>
       <c r="I70" s="68"/>
@@ -3795,7 +4007,7 @@
       <c r="V73" s="68"/>
       <c r="W73" s="69"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" ht="16.5" spans="1:23">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
       <c r="C74" s="68"/>
@@ -3809,7 +4021,7 @@
       <c r="K74" s="74"/>
       <c r="L74" s="68"/>
       <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
+      <c r="N74" s="62"/>
       <c r="O74" s="68"/>
       <c r="P74" s="68"/>
       <c r="Q74" s="70"/>
@@ -5214,6 +5426,10 @@
       <c r="P130" s="68"/>
       <c r="Q130" s="70"/>
       <c r="R130" s="69"/>
+      <c r="S130" s="68"/>
+      <c r="T130" s="68"/>
+      <c r="U130" s="68"/>
+      <c r="V130" s="68"/>
       <c r="W130" s="69"/>
     </row>
     <row r="131" spans="1:23">
@@ -5930,33 +6146,67 @@
       <c r="R164" s="69"/>
       <c r="W164" s="69"/>
     </row>
+    <row r="165" spans="1:23">
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="70"/>
+      <c r="I165" s="68"/>
+      <c r="J165" s="70"/>
+      <c r="K165" s="74"/>
+      <c r="L165" s="68"/>
+      <c r="M165" s="68"/>
+      <c r="N165" s="68"/>
+      <c r="O165" s="68"/>
+      <c r="P165" s="68"/>
+      <c r="Q165" s="70"/>
+      <c r="R165" s="69"/>
+      <c r="W165" s="69"/>
+    </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4 B5 B6 B7 B8:B1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M3 M4 M5 M6 M7 M8:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C5 C6 C7 C8:C1048576">
+      <formula1>"紧急,不紧急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3 R4 R5 R6 R7 R8:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3 E4 E5 E6 E7 E8:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3 I3 V3 G4 I4 V4 G5 I5 V5 G6 I6 V6 G7 I7 V7 G8:G1048576 I8:I1048576 V8:V1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8:N74">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3 P4 P5 P6 P7 P8:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3:B1048576">
-      <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3:G1048576 I3:I1048576 V3:V1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
-      <formula1>"紧急,不紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M3:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3:N73">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="S4" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="S5" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="S6" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="S7" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="S3" r:id="rId1" display="TP-511"/>
+    <hyperlink ref="T3" r:id="rId2" display="9187" tooltip="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9185"/>
+    <hyperlink ref="T4" r:id="rId2" display="9187" tooltip="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9185"/>
+    <hyperlink ref="T5" r:id="rId2" display="9187" tooltip="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9185"/>
+    <hyperlink ref="T6" r:id="rId2" display="9187" tooltip="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9185"/>
+    <hyperlink ref="T7" r:id="rId2" display="9187" tooltip="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9185"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -5994,55 +6244,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>22</v>
@@ -6098,7 +6348,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6113,34 +6363,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>22</v>
@@ -6302,7 +6552,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6334,40 +6584,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6602,7 +6852,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6634,40 +6884,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6902,7 +7152,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6934,40 +7184,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -7204,7 +7454,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7236,40 +7486,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -7515,28 +7765,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
